--- a/db_design/关系模型.xlsx
+++ b/db_design/关系模型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="8520"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>user</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t>commodity_detail</t>
@@ -168,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -193,21 +196,6 @@
       <color theme="4" tint="-0.25"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,16 +207,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +238,97 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -257,82 +336,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -349,13 +352,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,163 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +551,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,17 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,9 +626,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,148 +648,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,8 +1130,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -1256,7 +1259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1269,53 +1272,56 @@
       <c r="D18" t="s">
         <v>29</v>
       </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -1326,19 +1332,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
@@ -1346,10 +1352,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>

--- a/db_design/关系模型.xlsx
+++ b/db_design/关系模型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>user</t>
   </si>
@@ -164,6 +164,30 @@
   </si>
   <si>
     <t>record_id</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>lost_id</t>
+  </si>
+  <si>
+    <t>type(-1 pick &amp; 1 lost)</t>
+  </si>
+  <si>
+    <t>status()</t>
+  </si>
+  <si>
+    <t>lost_detail</t>
+  </si>
+  <si>
+    <t>lost_time</t>
+  </si>
+  <si>
+    <t>lost_description</t>
+  </si>
+  <si>
+    <t>contact</t>
   </si>
 </sst>
 </file>
@@ -171,12 +195,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +220,149 @@
       <color theme="4" tint="-0.25"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,142 +373,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -352,6 +383,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,13 +401,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,55 +479,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,85 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,46 +581,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,16 +617,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,157 +650,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,6 +838,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -875,7 +909,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1128,13 +1162,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="19" width="15.8" customWidth="1"/>
   </cols>
@@ -1367,6 +1401,43 @@
         <v>18</v>
       </c>
     </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
